--- a/Doc/JDT/Journal-de-Travail_NomPrénom_Model.xlsx
+++ b/Doc/JDT/Journal-de-Travail_NomPrénom_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pa70iyc\Documents\GitHub\Vanguard-Fighter-s\Doc\JDT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86534B02-AB7B-495E-B226-C147864B1315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17840195-A57E-4AEC-91BF-85D3C8EBB58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31005" yWindow="3060" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Auteur:</t>
   </si>
@@ -103,15 +103,6 @@
     <t>Implémentation</t>
   </si>
   <si>
-    <t>Nom-du-projet</t>
-  </si>
-  <si>
-    <t>02.05.2024  à 13h10 au 03.06.2024 à 13h50</t>
-  </si>
-  <si>
-    <t>Nom Prénom</t>
-  </si>
-  <si>
     <t xml:space="preserve">h.      </t>
   </si>
   <si>
@@ -143,6 +134,36 @@
   </si>
   <si>
     <t>Je commence mon wireframe de mon menu de jeu</t>
+  </si>
+  <si>
+    <t>De Pina Correia Ryan</t>
+  </si>
+  <si>
+    <t>UX-UI 322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02.09.2024  à 8h00 au 01.11.2024 à 17h35 </t>
+  </si>
+  <si>
+    <t>Le Wireframe de mon jeu est terminé du côté du Title</t>
+  </si>
+  <si>
+    <t>Menu Play terminé</t>
+  </si>
+  <si>
+    <t>Menu Option terminé</t>
+  </si>
+  <si>
+    <t>Pas de BackGround pour faire une illusion assez bien</t>
+  </si>
+  <si>
+    <t>Menu de jeu In_Game en préparation (groupe et icone)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu de jeu In_Game (Game Paused) </t>
+  </si>
+  <si>
+    <t>Menu Edit</t>
   </si>
 </sst>
 </file>
@@ -1085,7 +1106,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1937,7 +1958,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -4127,9 +4148,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4156,7 +4177,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="11"/>
       <c r="F1" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" s="11"/>
     </row>
@@ -4166,7 +4187,7 @@
       </c>
       <c r="B2" s="82"/>
       <c r="C2" s="80" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
@@ -4174,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="75" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -4184,7 +4205,7 @@
       <c r="B3" s="82"/>
       <c r="C3" s="78" t="str">
         <f>QUOTIENT(E4,60)&amp;" heures "&amp;MOD(E4,60)&amp;" minutes"</f>
-        <v>1 heures 40 minutes</v>
+        <v>3 heures 45 minutes</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="3"/>
@@ -4192,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="76" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
@@ -4203,11 +4224,11 @@
       </c>
       <c r="D4" s="19">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="E4" s="29">
         <f>SUM(C4:D4)</f>
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
@@ -4226,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>15</v>
@@ -4255,14 +4276,12 @@
       <c r="D7" s="34">
         <v>30</v>
       </c>
-      <c r="E7" s="35" t="s">
-        <v>19</v>
-      </c>
+      <c r="E7" s="35"/>
       <c r="F7" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="44" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -4277,11 +4296,9 @@
       <c r="D8" s="38">
         <v>10</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>19</v>
-      </c>
+      <c r="E8" s="39"/>
       <c r="F8" s="28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G8" s="45"/>
       <c r="M8" t="s">
@@ -4295,15 +4312,21 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="str">
+      <c r="A9" s="74">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B9" s="40">
+        <v>45544</v>
+      </c>
       <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
+      <c r="D9" s="42">
+        <v>45</v>
+      </c>
       <c r="E9" s="43"/>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="G9" s="46"/>
       <c r="M9" t="s">
         <v>19</v>
@@ -4316,15 +4339,21 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="str">
+      <c r="A10" s="73">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="36">
+        <v>45544</v>
+      </c>
       <c r="C10" s="37"/>
-      <c r="D10" s="38"/>
+      <c r="D10" s="38">
+        <v>15</v>
+      </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="45"/>
       <c r="M10" t="s">
         <v>3</v>
@@ -4337,15 +4366,19 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="str">
+      <c r="A11" s="74">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B11" s="40">
+        <v>45544</v>
+      </c>
       <c r="C11" s="41"/>
       <c r="D11" s="42"/>
       <c r="E11" s="43"/>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="G11" s="46"/>
       <c r="M11" t="s">
         <v>4</v>
@@ -4358,11 +4391,13 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="73" t="str">
+      <c r="A12" s="73">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="B12" s="36">
+        <v>45544</v>
+      </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
@@ -4376,11 +4411,13 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="74" t="str">
+      <c r="A13" s="74">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B13" s="40">
+        <v>45544</v>
+      </c>
       <c r="C13" s="41"/>
       <c r="D13" s="42"/>
       <c r="E13" s="43"/>
@@ -4394,15 +4431,21 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="73" t="str">
+      <c r="A14" s="73">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="B14" s="36">
+        <v>45544</v>
+      </c>
       <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
+      <c r="D14" s="38">
+        <v>10</v>
+      </c>
       <c r="E14" s="39"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="45"/>
       <c r="N14">
         <v>7</v>
@@ -4412,16 +4455,24 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="74" t="str">
+      <c r="A15" s="74">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="40"/>
+        <v>37</v>
+      </c>
+      <c r="B15" s="40">
+        <v>45544</v>
+      </c>
       <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
+      <c r="D15" s="42">
+        <v>40</v>
+      </c>
       <c r="E15" s="43"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="46"/>
+      <c r="F15" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>37</v>
+      </c>
       <c r="N15">
         <v>8</v>
       </c>
@@ -4430,16 +4481,24 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="73" t="str">
+      <c r="A16" s="73">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="36"/>
+        <v>37</v>
+      </c>
+      <c r="B16" s="36">
+        <v>45544</v>
+      </c>
       <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
+      <c r="D16" s="38">
+        <v>15</v>
+      </c>
       <c r="E16" s="39"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="45"/>
+      <c r="F16" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>37</v>
+      </c>
       <c r="O16">
         <v>40</v>
       </c>
@@ -10721,13 +10780,13 @@
   <sheetData>
     <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E2" s="77" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="79">
         <v>88</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="52"/>
@@ -10740,10 +10799,10 @@
     </row>
     <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="E4" s="77" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L4" s="77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="24"/>
@@ -10756,7 +10815,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="53" t="s">
@@ -10766,7 +10825,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L5" s="59" t="s">
         <v>12</v>
@@ -10775,7 +10834,7 @@
         <v>13</v>
       </c>
       <c r="N5" s="61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -10799,9 +10858,9 @@
         <f>QUOTIENT(SUM(A6:B6),60)&amp;" h "&amp;TEXT(MOD(SUM(A6:B6),60), "00")&amp;" min"</f>
         <v>0 h 00 min</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="47" t="e">
         <f>SUM(A6:B6)/$C$10</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L6" s="62" t="str">
         <f>'Journal de travail'!M8</f>
@@ -10818,15 +10877,15 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Plannification!E7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E7" s="30" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10834,11 +10893,11 @@
       </c>
       <c r="F7" s="55" t="str">
         <f t="shared" ref="F7:F10" si="1">QUOTIENT(SUM(A7:B7),60)&amp;" h "&amp;TEXT(MOD(SUM(A7:B7),60), "00")&amp;" min"</f>
-        <v>1 h 40 min</v>
-      </c>
-      <c r="G7" s="56">
+        <v>0 h 00 min</v>
+      </c>
+      <c r="G7" s="56" t="e">
         <f t="shared" ref="G7:G9" si="2">SUM(A7:B7)/$C$10</f>
-        <v>1</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L7" s="64" t="str">
         <f>'Journal de travail'!M9</f>
@@ -10873,9 +10932,9 @@
         <f t="shared" si="1"/>
         <v>0 h 00 min</v>
       </c>
-      <c r="G8" s="47">
+      <c r="G8" s="47" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L8" s="65" t="str">
         <f>'Journal de travail'!M10</f>
@@ -10910,9 +10969,9 @@
         <f t="shared" si="1"/>
         <v>0 h 00 min</v>
       </c>
-      <c r="G9" s="56">
+      <c r="G9" s="56" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L9" s="66" t="str">
         <f>'Journal de travail'!M11</f>
@@ -10929,26 +10988,26 @@
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>SUM(A6:A9)</f>
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <f>SUM(B6:B9)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <f>SUM(A10:B10)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="50" t="str">
         <f t="shared" si="1"/>
-        <v>1 h 40 min</v>
+        <v>0 h 00 min</v>
       </c>
       <c r="G10" s="57">
         <f>C10/C11</f>
-        <v>1.893939393939394E-2</v>
+        <v>0</v>
       </c>
       <c r="L10" s="67" t="s">
         <v>18</v>
@@ -10992,26 +11051,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010080C9F2488912074FB587B9AD9ADAE5BB" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34298955776df91f451dfdd912b0d80d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b5cf4370-ac38-4b9e-9836-ef6f5df64f24" xmlns:ns3="eefa3612-053e-497a-ae76-8a76877f5e22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ed9741631eefaa61c396a6d47d02de0f" ns2:_="" ns3:_="">
     <xsd:import namespace="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
@@ -11206,10 +11245,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="eefa3612-053e-497a-ae76-8a76877f5e22" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b5cf4370-ac38-4b9e-9836-ef6f5df64f24">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
+    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11228,20 +11298,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EE95A31-3997-42E6-AE6E-094AD61D4048}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b5cf4370-ac38-4b9e-9836-ef6f5df64f24"/>
-    <ds:schemaRef ds:uri="eefa3612-053e-497a-ae76-8a76877f5e22"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>